--- a/Blopnote/blopnote bugs and notes.xlsx
+++ b/Blopnote/blopnote bugs and notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azgel\source\repos\Blopnote\Blopnote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97F2271-C5B2-459C-AC0A-B5EF8108C622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CC8C86-6C57-4386-9235-D6B2CADB4E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D1902E2-70B7-47CB-86DF-C5450FDE41FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>hotkeys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const MAX_WIDTH added </t>
   </si>
 </sst>
 </file>
@@ -670,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5A6968-05AB-409C-B696-8DB44652D9F9}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +921,7 @@
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -993,7 +996,10 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4">

--- a/Blopnote/blopnote bugs and notes.xlsx
+++ b/Blopnote/blopnote bugs and notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azgel\source\repos\Blopnote\Blopnote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CC8C86-6C57-4386-9235-D6B2CADB4E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC3B49A-1786-4D64-B73D-B89E8FB1D33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D1902E2-70B7-47CB-86DF-C5450FDE41FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -171,9 +171,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>everywhere</t>
-  </si>
-  <si>
     <t>ctrl+w closes whole the app but ctrl+d must works only in textbox</t>
   </si>
   <si>
@@ -250,6 +247,27 @@
   </si>
   <si>
     <t xml:space="preserve">const MAX_WIDTH added </t>
+  </si>
+  <si>
+    <t>change folder button is available only when file is closed</t>
+  </si>
+  <si>
+    <t>ctrl+c</t>
+  </si>
+  <si>
+    <t>copy the current line to clipboard</t>
+  </si>
+  <si>
+    <t>turned out it's very easy. i wanna practice more with hotkeys</t>
+  </si>
+  <si>
+    <t>redundant keyword</t>
+  </si>
+  <si>
+    <t>when file is opened, cut the text till key word and close it with [keyword] at the end. After opening this file the last line will be [keyword][keyword].</t>
+  </si>
+  <si>
+    <t>highlight the line with carrgiage</t>
   </si>
 </sst>
 </file>
@@ -673,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5A6968-05AB-409C-B696-8DB44652D9F9}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +834,7 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5" t="s">
         <v>46</v>
@@ -873,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -883,10 +901,10 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -959,7 +977,7 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="75" x14ac:dyDescent="0.25">
@@ -978,7 +996,10 @@
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -998,7 +1019,7 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1072,23 +1093,26 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -1098,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
@@ -1114,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
@@ -1130,10 +1154,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
@@ -1148,20 +1172,20 @@
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1172,17 +1196,17 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -1193,43 +1217,57 @@
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
@@ -1424,12 +1462,16 @@
       <c r="E47" s="3"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="1"/>
@@ -1439,20 +1481,20 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D50" s="3"/>
     </row>

--- a/Blopnote/blopnote bugs and notes.xlsx
+++ b/Blopnote/blopnote bugs and notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azgel\source\repos\Blopnote\Blopnote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC3B49A-1786-4D64-B73D-B89E8FB1D33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E90187E-DEC2-41CD-BBB9-39A435E4EF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D1902E2-70B7-47CB-86DF-C5450FDE41FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -171,9 +171,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>ctrl+w closes whole the app but ctrl+d must works only in textbox</t>
-  </si>
-  <si>
     <t>no notification about empty fields</t>
   </si>
   <si>
@@ -268,6 +265,21 @@
   </si>
   <si>
     <t>highlight the line with carrgiage</t>
+  </si>
+  <si>
+    <t>ctrl+w closes whole the app and ctrl+c must works only in textbox</t>
+  </si>
+  <si>
+    <t>hotkeys added only to main textbox</t>
+  </si>
+  <si>
+    <t>do you want to compare?</t>
+  </si>
+  <si>
+    <t>when song is written, user sees the proposal to compare his translation with translation from google and original text.</t>
+  </si>
+  <si>
+    <t>user can look at the song translation from google during writing his translation by pulling mouse cursor on any line in lyrics box.</t>
   </si>
 </sst>
 </file>
@@ -691,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5A6968-05AB-409C-B696-8DB44652D9F9}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +846,7 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N5" t="s">
         <v>46</v>
@@ -891,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -901,10 +913,10 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -977,7 +989,7 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="75" x14ac:dyDescent="0.25">
@@ -998,7 +1010,7 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
@@ -1019,7 +1031,7 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1036,7 +1048,7 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1101,17 +1113,17 @@
         <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1122,7 +1134,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
@@ -1138,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
@@ -1154,10 +1166,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
@@ -1172,20 +1184,20 @@
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1196,17 +1208,17 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -1217,17 +1229,17 @@
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1238,13 +1250,18 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1254,10 +1271,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>13</v>
@@ -1268,7 +1285,6 @@
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
     </row>
@@ -1276,9 +1292,6 @@
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="1"/>
     </row>
@@ -1442,24 +1455,38 @@
       <c r="E45" s="3"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1470,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -1481,20 +1508,20 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" s="3"/>
     </row>

--- a/Blopnote/blopnote bugs and notes.xlsx
+++ b/Blopnote/blopnote bugs and notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azgel\source\repos\Blopnote\Blopnote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E90187E-DEC2-41CD-BBB9-39A435E4EF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134E83E7-1907-47E7-8575-971DD8BA87FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D1902E2-70B7-47CB-86DF-C5450FDE41FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -280,6 +280,35 @@
   </si>
   <si>
     <t>user can look at the song translation from google during writing his translation by pulling mouse cursor on any line in lyrics box.</t>
+  </si>
+  <si>
+    <t>configure the languages for translation</t>
+  </si>
+  <si>
+    <t>everywhere</t>
+  </si>
+  <si>
+    <t>store translation from google translator</t>
+  </si>
+  <si>
+    <t>CTRL+C WORKS WRONG CAUSE IT DOESN'T HANDLE SELECTED AREA</t>
+  </si>
+  <si>
+    <t>Use song info instead of lyrics</t>
+  </si>
+  <si>
+    <t>song info contains:
+lyrics
+source language
+target language
+translation completeness
+translation by google</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>main / create</t>
   </si>
 </sst>
 </file>
@@ -703,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5A6968-05AB-409C-B696-8DB44652D9F9}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +741,7 @@
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" customWidth="1"/>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
@@ -1315,14 +1344,22 @@
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1355,12 +1392,14 @@
       <c r="E35" s="3"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="1"/>
@@ -1435,24 +1474,32 @@
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="105" x14ac:dyDescent="0.25">

--- a/Blopnote/blopnote bugs and notes.xlsx
+++ b/Blopnote/blopnote bugs and notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azgel\source\repos\Blopnote\Blopnote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134E83E7-1907-47E7-8575-971DD8BA87FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37652F9-501F-4A82-A633-A09CD29687E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D1902E2-70B7-47CB-86DF-C5450FDE41FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -201,9 +201,6 @@
     <t>what folder is opened now?</t>
   </si>
   <si>
-    <t>it's hard to understand to user what folder is opened in app right now. To do it he can click the  "Open" button and current folder will be opend but it's so hard for newbie</t>
-  </si>
-  <si>
     <t>suggest translation</t>
   </si>
   <si>
@@ -286,9 +283,6 @@
   </si>
   <si>
     <t>everywhere</t>
-  </si>
-  <si>
-    <t>store translation from google translator</t>
   </si>
   <si>
     <t>CTRL+C WORKS WRONG CAUSE IT DOESN'T HANDLE SELECTED AREA</t>
@@ -309,6 +303,15 @@
   </si>
   <si>
     <t>main / create</t>
+  </si>
+  <si>
+    <t>it's difficult for user to understand what folder is opened in app right now. To do it he can click the  "Open" button and current folder will be opend but it's so hard for newbie</t>
+  </si>
+  <si>
+    <t>congratulations notificates when your move the carriage instead of when text lines quantity is equal to lyrics lines quantity</t>
+  </si>
+  <si>
+    <t>redundant congratulations</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -415,6 +418,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,7 +739,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1045,7 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
@@ -1060,7 +1066,7 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1142,17 +1148,17 @@
         <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1205,7 +1211,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1216,17 +1222,17 @@
         <v>57</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1237,17 +1243,17 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -1258,17 +1264,17 @@
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1279,17 +1285,17 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1300,77 +1306,90 @@
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -1392,27 +1411,16 @@
       <c r="E35" s="3"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -1474,14 +1482,14 @@
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="B44" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
@@ -1491,10 +1499,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
@@ -1502,7 +1510,7 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1510,10 +1518,10 @@
         <v>7</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>5</v>
@@ -1528,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -1536,40 +1544,28 @@
       </c>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>66</v>
-      </c>
       <c r="D50" s="3"/>
     </row>
   </sheetData>

--- a/Blopnote/blopnote bugs and notes.xlsx
+++ b/Blopnote/blopnote bugs and notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azgel\source\repos\Blopnote\Blopnote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37652F9-501F-4A82-A633-A09CD29687E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AEBE5A-CE36-469F-9999-0F433C60B722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D1902E2-70B7-47CB-86DF-C5450FDE41FB}"/>
   </bookViews>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5A6968-05AB-409C-B696-8DB44652D9F9}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,48 +1379,91 @@
       <c r="E31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -1482,65 +1525,27 @@
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F47" s="1"/>
     </row>
@@ -1548,20 +1553,11 @@
       <c r="A48" s="4">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F49" s="1"/>
     </row>

--- a/Blopnote/blopnote bugs and notes.xlsx
+++ b/Blopnote/blopnote bugs and notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azgel\source\repos\Blopnote\Blopnote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AEBE5A-CE36-469F-9999-0F433C60B722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536A8EDB-914F-4692-91D9-C981CA281A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D1902E2-70B7-47CB-86DF-C5450FDE41FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>when song is written, user sees the proposal to compare his translation with translation from google and original text.</t>
-  </si>
-  <si>
-    <t>user can look at the song translation from google during writing his translation by pulling mouse cursor on any line in lyrics box.</t>
   </si>
   <si>
     <t>configure the languages for translation</t>
@@ -312,6 +309,15 @@
   </si>
   <si>
     <t>redundant congratulations</t>
+  </si>
+  <si>
+    <t>bug replaced by json (wasn't fixed but was disappeared)</t>
+  </si>
+  <si>
+    <t>AmountOfInvisibleLabels property was changed</t>
+  </si>
+  <si>
+    <t>user can look at the song translation from google during writing of his translation by holding TAB</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -422,6 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -738,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5A6968-05AB-409C-B696-8DB44652D9F9}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1108,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1117,7 +1124,10 @@
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1209,7 +1219,10 @@
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1222,7 +1235,7 @@
         <v>57</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>5</v>
@@ -1235,7 +1248,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1277,7 +1290,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1337,25 +1350,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
@@ -1371,10 +1384,10 @@
         <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>13</v>
@@ -1385,10 +1398,9 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
@@ -1398,10 +1410,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
@@ -1427,7 +1439,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1435,7 +1447,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">

--- a/Blopnote/blopnote bugs and notes.xlsx
+++ b/Blopnote/blopnote bugs and notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azgel\source\repos\Blopnote\Blopnote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536A8EDB-914F-4692-91D9-C981CA281A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5123000-78AC-45D1-9E6A-B0B4877C3F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D1902E2-70B7-47CB-86DF-C5450FDE41FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -318,6 +318,18 @@
   </si>
   <si>
     <t>user can look at the song translation from google during writing of his translation by holding TAB</t>
+  </si>
+  <si>
+    <t>lyrics not found from first attempt</t>
+  </si>
+  <si>
+    <t>but ones found in other attempts</t>
+  </si>
+  <si>
+    <t>index out of range for tab</t>
+  </si>
+  <si>
+    <t>only first x translated lines displayed for n lines where x &lt; n</t>
   </si>
 </sst>
 </file>
@@ -745,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5A6968-05AB-409C-B696-8DB44652D9F9}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,19 +1483,35 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
+      <c r="B37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="11"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
     </row>
@@ -1541,36 +1569,60 @@
       <c r="A44" s="4">
         <v>43</v>
       </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">

--- a/Blopnote/blopnote bugs and notes.xlsx
+++ b/Blopnote/blopnote bugs and notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azgel\source\repos\Blopnote\Blopnote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5123000-78AC-45D1-9E6A-B0B4877C3F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A119F34-65A6-4395-B1D9-29CFD8569237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D1902E2-70B7-47CB-86DF-C5450FDE41FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>only first x translated lines displayed for n lines where x &lt; n</t>
+  </si>
+  <si>
+    <t>request for retranslation</t>
+  </si>
+  <si>
+    <t>in case when google translator didn't give results or user want to refresh translation</t>
   </si>
 </sst>
 </file>
@@ -757,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5A6968-05AB-409C-B696-8DB44652D9F9}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,13 +1521,19 @@
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="1"/>
     </row>

--- a/Blopnote/blopnote bugs and notes.xlsx
+++ b/Blopnote/blopnote bugs and notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azgel\source\repos\Blopnote\Blopnote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A119F34-65A6-4395-B1D9-29CFD8569237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9663807E-8F8B-4BFD-AB89-781342B4D575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D1902E2-70B7-47CB-86DF-C5450FDE41FB}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="28710" windowHeight="11145" xr2:uid="{7D1902E2-70B7-47CB-86DF-C5450FDE41FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>in case when google translator didn't give results or user want to refresh translation</t>
+  </si>
+  <si>
+    <t>after dream browser is disconnected</t>
   </si>
 </sst>
 </file>
@@ -763,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5A6968-05AB-409C-B696-8DB44652D9F9}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,12 +1540,16 @@
       <c r="E39" s="3"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="1"/>
@@ -1561,7 +1568,6 @@
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>

--- a/Blopnote/blopnote bugs and notes.xlsx
+++ b/Blopnote/blopnote bugs and notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azgel\source\repos\Blopnote\Blopnote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9663807E-8F8B-4BFD-AB89-781342B4D575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC080D6C-B825-4127-A09A-4D4D737F8165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28710" windowHeight="11145" xr2:uid="{7D1902E2-70B7-47CB-86DF-C5450FDE41FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D1902E2-70B7-47CB-86DF-C5450FDE41FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -339,6 +339,24 @@
   </si>
   <si>
     <t>after dream browser is disconnected</t>
+  </si>
+  <si>
+    <t>Application.Exit()</t>
+  </si>
+  <si>
+    <t>doesn't work</t>
+  </si>
+  <si>
+    <t>app executes code after Exit()</t>
+  </si>
+  <si>
+    <t>How to add console to winforms app</t>
+  </si>
+  <si>
+    <t>and file logging</t>
+  </si>
+  <si>
+    <t>FileProcessor.AskPath() works in awkward way</t>
   </si>
 </sst>
 </file>
@@ -420,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -450,6 +468,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -764,16 +785,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5A6968-05AB-409C-B696-8DB44652D9F9}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" customWidth="1"/>
@@ -1426,7 +1447,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1442,7 +1463,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1460,7 +1481,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1476,7 +1497,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1492,7 +1513,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1508,7 +1529,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1524,7 +1545,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1538,9 +1559,10 @@
         <v>101</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F39" s="13"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1552,9 +1574,10 @@
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="13"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1562,89 +1585,876 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="13"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
+      <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="13"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="13"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
       <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Blopnote/blopnote bugs and notes.xlsx
+++ b/Blopnote/blopnote bugs and notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azgel\source\repos\Blopnote\Blopnote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC080D6C-B825-4127-A09A-4D4D737F8165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CA5649-92D6-49E6-BCF9-E27BE850AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D1902E2-70B7-47CB-86DF-C5450FDE41FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="111">
   <si>
     <t>ID</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>FileProcessor.AskPath() works in awkward way</t>
+  </si>
+  <si>
+    <t>add logs everywhere</t>
+  </si>
+  <si>
+    <t>add webdriver changing</t>
   </si>
 </sst>
 </file>
@@ -788,7 +794,7 @@
   <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,18 +1654,22 @@
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="13"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>

--- a/Blopnote/blopnote bugs and notes.xlsx
+++ b/Blopnote/blopnote bugs and notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azgel\source\repos\Blopnote\Blopnote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CA5649-92D6-49E6-BCF9-E27BE850AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAA0D14-4032-4E64-84F1-85AC6D5FA7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D1902E2-70B7-47CB-86DF-C5450FDE41FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>using google translator for example program could suggest translation for each line after mouse enter on the corresponding line</t>
-  </si>
-  <si>
-    <t>it's not a bug</t>
   </si>
   <si>
     <t>similar lines must be binded</t>
@@ -311,9 +308,6 @@
     <t>redundant congratulations</t>
   </si>
   <si>
-    <t>bug replaced by json (wasn't fixed but was disappeared)</t>
-  </si>
-  <si>
     <t>AmountOfInvisibleLabels property was changed</t>
   </si>
   <si>
@@ -362,14 +356,14 @@
     <t>add logs everywhere</t>
   </si>
   <si>
-    <t>add webdriver changing</t>
+    <t>bug replaced by json (wasn't fixed but disappeared)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,8 +381,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,25 +410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -462,21 +457,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -793,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5A6968-05AB-409C-B696-8DB44652D9F9}">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +903,7 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="3" t="s">
         <v>38</v>
       </c>
@@ -934,7 +933,7 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="3" t="s">
         <v>52</v>
       </c>
@@ -1001,7 +1000,7 @@
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="3" t="s">
         <v>49</v>
       </c>
@@ -1100,7 +1099,7 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
@@ -1121,7 +1120,7 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1172,9 +1171,9 @@
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1206,17 +1205,17 @@
         <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1249,7 +1248,7 @@
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -1269,7 +1268,7 @@
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -1283,17 +1282,17 @@
         <v>57</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -1312,10 +1311,8 @@
       <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1325,17 +1322,17 @@
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1346,17 +1343,17 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1367,10 +1364,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>13</v>
@@ -1385,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
@@ -1398,25 +1395,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
@@ -1432,10 +1429,10 @@
         <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>13</v>
@@ -1446,8 +1443,8 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>65</v>
+      <c r="C32" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1458,10 +1455,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
@@ -1477,10 +1474,10 @@
         <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>5</v>
@@ -1495,27 +1492,27 @@
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F36" s="1"/>
     </row>
@@ -1527,12 +1524,12 @@
         <v>11</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="8"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1543,10 +1540,10 @@
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
@@ -1559,13 +1556,13 @@
         <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="13"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1573,14 +1570,14 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="13"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1591,7 +1588,7 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="13"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1602,7 +1599,7 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="13"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1610,13 +1607,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="13"/>
@@ -1627,14 +1624,14 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="13"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1642,12 +1639,12 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="13"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1655,25 +1652,23 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="13"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="13"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1684,7 +1679,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="13"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1695,7 +1690,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="13"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
